--- a/data/trans_orig/P23-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>195952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174763</v>
+        <v>173172</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220966</v>
+        <v>220910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3354535800600433</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2991791122189345</v>
+        <v>0.2964559862370465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3782742603932107</v>
+        <v>0.3781795349043762</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>621</v>
@@ -764,19 +764,19 @@
         <v>648310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>617508</v>
+        <v>619904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>674233</v>
+        <v>676504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.702902504322233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6695063544913583</v>
+        <v>0.6721046326731702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7310078028423809</v>
+        <v>0.7334703922552325</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>815</v>
@@ -785,19 +785,19 @@
         <v>844262</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>806150</v>
+        <v>809418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>884646</v>
+        <v>881151</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.560422743852958</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5351236482744915</v>
+        <v>0.5372931815285633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5872297835578114</v>
+        <v>0.5849098056164659</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>125456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106693</v>
+        <v>107382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144841</v>
+        <v>147568</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2147698893931952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1826493935225951</v>
+        <v>0.1838285964682093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2479563165949535</v>
+        <v>0.2526231582036882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -835,19 +835,19 @@
         <v>51767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39000</v>
+        <v>38471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64580</v>
+        <v>66650</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05612644293050703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04228399770495239</v>
+        <v>0.04171099086171565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07001756034570795</v>
+        <v>0.07226211939806752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>175</v>
@@ -856,19 +856,19 @@
         <v>177223</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155137</v>
+        <v>153487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>204541</v>
+        <v>205804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1176410610435147</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1029802824518275</v>
+        <v>0.1018851773786728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.135774974604652</v>
+        <v>0.1366131382715443</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>10965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5311</v>
+        <v>5662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19784</v>
+        <v>19848</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01877170189955843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009091471288206823</v>
+        <v>0.009692818356858137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03386848024089846</v>
+        <v>0.03397746867102371</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -906,19 +906,19 @@
         <v>13220</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7239</v>
+        <v>7029</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23057</v>
+        <v>21931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01433311628298011</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007848641073646832</v>
+        <v>0.007620877177864296</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02499887651699669</v>
+        <v>0.02377756766117193</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -927,19 +927,19 @@
         <v>24185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14786</v>
+        <v>15579</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36783</v>
+        <v>35727</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01605419525128101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009815254681281957</v>
+        <v>0.01034106902244022</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02441640102637973</v>
+        <v>0.02371531721655679</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>251768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>227797</v>
+        <v>227956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273591</v>
+        <v>274715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.431004828647203</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3899697517722561</v>
+        <v>0.3902420293271677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4683643112449535</v>
+        <v>0.470288848449416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -977,19 +977,19 @@
         <v>209036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184100</v>
+        <v>183914</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235949</v>
+        <v>235045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2266379364642798</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1996029781124883</v>
+        <v>0.1994008802681238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2558171755855071</v>
+        <v>0.254837981252075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>447</v>
@@ -998,19 +998,19 @@
         <v>460803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>423072</v>
+        <v>424391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>495167</v>
+        <v>497620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3058819998522463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2808356686366676</v>
+        <v>0.2817116658330089</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3286929221327416</v>
+        <v>0.3303210101858376</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>387511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>353976</v>
+        <v>356930</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>421923</v>
+        <v>419002</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3595076855168175</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3283959689278537</v>
+        <v>0.3311360521646819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3914325385676035</v>
+        <v>0.3887227423932539</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>686</v>
@@ -1123,19 +1123,19 @@
         <v>705667</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>674783</v>
+        <v>673148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>734514</v>
+        <v>733540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6672731333541592</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.638069710122367</v>
+        <v>0.6365234926395937</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6945509904639097</v>
+        <v>0.6936300144748136</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1060</v>
@@ -1144,19 +1144,19 @@
         <v>1093178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1044364</v>
+        <v>1044754</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1139250</v>
+        <v>1140261</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5119235206728469</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4890646812050155</v>
+        <v>0.489247188564603</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5334984555609152</v>
+        <v>0.5339719124957413</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>196947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170400</v>
+        <v>174446</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221711</v>
+        <v>221104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1827143488100398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1580857749967771</v>
+        <v>0.1618397738946172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.205689241729254</v>
+        <v>0.2051254930543872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1194,19 +1194,19 @@
         <v>73916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59545</v>
+        <v>57545</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92743</v>
+        <v>93326</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0698947256441515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05630505033126126</v>
+        <v>0.05441423689504885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08769691405560474</v>
+        <v>0.08824849971446465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>272</v>
@@ -1215,19 +1215,19 @@
         <v>270863</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241831</v>
+        <v>241194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302611</v>
+        <v>302832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1268422643780491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1132469914826615</v>
+        <v>0.1129487023574536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.141709365738527</v>
+        <v>0.141812855493782</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>23437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15319</v>
+        <v>15328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34475</v>
+        <v>34926</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02174313322275702</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01421223293086709</v>
+        <v>0.01422035183094574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03198352386983035</v>
+        <v>0.03240211871464335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>24430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15697</v>
+        <v>16309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35205</v>
+        <v>35407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02310089154258576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01484257623256087</v>
+        <v>0.01542136413693141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03328950234091994</v>
+        <v>0.0334805744938681</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -1286,19 +1286,19 @@
         <v>47867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36029</v>
+        <v>35018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63467</v>
+        <v>62222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02241554095959341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01687196818814771</v>
+        <v>0.01639841804399727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02972101992935421</v>
+        <v>0.02913809951404956</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>469999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>435467</v>
+        <v>436155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>503739</v>
+        <v>500744</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4360348324503857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4039981942260112</v>
+        <v>0.4046359792783062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4673365473029372</v>
+        <v>0.4645578270789935</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -1336,19 +1336,19 @@
         <v>253525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>226474</v>
+        <v>226224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>282349</v>
+        <v>282070</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2397312494591036</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2141517312657973</v>
+        <v>0.2139159274237754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2669871575678476</v>
+        <v>0.2667228101570847</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>703</v>
@@ -1357,19 +1357,19 @@
         <v>723524</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>681783</v>
+        <v>680651</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>772071</v>
+        <v>769818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3388186739895106</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3192717650691834</v>
+        <v>0.3187417351985017</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.361552777000709</v>
+        <v>0.3604977336464175</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>443070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>411819</v>
+        <v>411815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474923</v>
+        <v>475197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3950356768191996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3671733793115909</v>
+        <v>0.3671695188446032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4234354605577791</v>
+        <v>0.4236802055660819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>652</v>
@@ -1482,19 +1482,19 @@
         <v>657312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629301</v>
+        <v>628244</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>684307</v>
+        <v>685484</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6613193570399069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6331376264610222</v>
+        <v>0.6320744843888251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6884786869577103</v>
+        <v>0.6896632552541442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1090</v>
@@ -1503,19 +1503,19 @@
         <v>1100381</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1057345</v>
+        <v>1054996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1145401</v>
+        <v>1146679</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5201435270487897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.499800569037096</v>
+        <v>0.4986902803234125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5414240574048449</v>
+        <v>0.5420282412693879</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>222999</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>198146</v>
+        <v>197839</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>250737</v>
+        <v>250169</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1988229150105393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1766647757530965</v>
+        <v>0.1763910691594219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2235537617380496</v>
+        <v>0.2230479569065859</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>83</v>
@@ -1553,19 +1553,19 @@
         <v>87787</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>70981</v>
+        <v>69742</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>106563</v>
+        <v>106711</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08832177597403199</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07141383347810691</v>
+        <v>0.07016696226386696</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.107212493225054</v>
+        <v>0.107361220893847</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>301</v>
@@ -1574,19 +1574,19 @@
         <v>310785</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>276414</v>
+        <v>281041</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>340306</v>
+        <v>346283</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1469062525199199</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1306593108446168</v>
+        <v>0.1328465299585637</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1608605256145759</v>
+        <v>0.1636860526297595</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>30167</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21646</v>
+        <v>21406</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42404</v>
+        <v>42320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02689669916422239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01929929809107012</v>
+        <v>0.01908555179577417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03780696107670774</v>
+        <v>0.0377318003735301</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1624,19 +1624,19 @@
         <v>32398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23331</v>
+        <v>22662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45097</v>
+        <v>44958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03259543790321259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02347310251202616</v>
+        <v>0.02279997539522463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04537150053774153</v>
+        <v>0.04523224179356757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -1645,19 +1645,19 @@
         <v>62565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48230</v>
+        <v>48456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80446</v>
+        <v>79334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02957413306503156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02279788438578209</v>
+        <v>0.02290469059188766</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03802631615235131</v>
+        <v>0.03750056072538797</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>425359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>395452</v>
+        <v>395523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>457397</v>
+        <v>457145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3792447090060387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3525802182050871</v>
+        <v>0.3526440265817693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4078098713621626</v>
+        <v>0.4075854811536486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1695,19 +1695,19 @@
         <v>216444</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192799</v>
+        <v>189787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>243204</v>
+        <v>243630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2177634290828486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1939748035927152</v>
+        <v>0.1909438850623532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2446863499997502</v>
+        <v>0.2451157081032875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>629</v>
@@ -1716,19 +1716,19 @@
         <v>641802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>601936</v>
+        <v>597892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>687731</v>
+        <v>682848</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3033760873662588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2845314908462854</v>
+        <v>0.2826199578011598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3250862851990468</v>
+        <v>0.3227780474738236</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>209018</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>188258</v>
+        <v>187632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229633</v>
+        <v>229523</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4673926570475449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4209706989199696</v>
+        <v>0.4195702060335089</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5134901643162787</v>
+        <v>0.5132453594110147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>205</v>
@@ -1841,19 +1841,19 @@
         <v>206865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187934</v>
+        <v>187667</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>223933</v>
+        <v>224016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6063615678059671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5508712468633378</v>
+        <v>0.5500879714869213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6563895622322361</v>
+        <v>0.6566327842354973</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>412</v>
@@ -1862,19 +1862,19 @@
         <v>415883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>387901</v>
+        <v>385787</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>442123</v>
+        <v>440612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5275308029906252</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4920364354721677</v>
+        <v>0.4893549887465178</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5608151482677344</v>
+        <v>0.5588982250412888</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>77849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62811</v>
+        <v>63462</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94570</v>
+        <v>94608</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1740820543420052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1404544016658947</v>
+        <v>0.1419091499026572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2114723962568423</v>
+        <v>0.2115571060111895</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1912,19 +1912,19 @@
         <v>35672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25137</v>
+        <v>25046</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47445</v>
+        <v>47626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1045612580995465</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07368234795686063</v>
+        <v>0.07341489893488946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1390694549039313</v>
+        <v>0.1396008910663071</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -1933,19 +1933,19 @@
         <v>113521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95281</v>
+        <v>96339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>134575</v>
+        <v>134048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.143997255031921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1208596592514045</v>
+        <v>0.1222018603069285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.170702626291126</v>
+        <v>0.1700347294893686</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>19646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11710</v>
+        <v>11694</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30569</v>
+        <v>29137</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04393163243619706</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0261848416084694</v>
+        <v>0.0261492399552627</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06835616107888889</v>
+        <v>0.0651533005258054</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1983,19 +1983,19 @@
         <v>13667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7309</v>
+        <v>7485</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21901</v>
+        <v>22673</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04006201427052998</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02142443087605555</v>
+        <v>0.02194066015413726</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06419553806424996</v>
+        <v>0.06646020997536237</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -2004,19 +2004,19 @@
         <v>33314</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22390</v>
+        <v>22998</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46888</v>
+        <v>46300</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04225707327961406</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02840057523899771</v>
+        <v>0.02917208373143206</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05947519811877689</v>
+        <v>0.05872978068329148</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>140686</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>121234</v>
+        <v>120570</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160389</v>
+        <v>160718</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3145936561742528</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2710963142896572</v>
+        <v>0.269609914826237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.358651546681236</v>
+        <v>0.3593880295704924</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -2054,19 +2054,19 @@
         <v>84954</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69568</v>
+        <v>70366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102254</v>
+        <v>102268</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2490151598239564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2039167865161859</v>
+        <v>0.2062552791779321</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2997270993562419</v>
+        <v>0.2997683009569638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>218</v>
@@ -2075,19 +2075,19 @@
         <v>225640</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200450</v>
+        <v>202839</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250096</v>
+        <v>254978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2862148686978397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.25426219862905</v>
+        <v>0.2572933391464599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.317236201980806</v>
+        <v>0.3234291657941809</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>1235551</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1175867</v>
+        <v>1178967</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1292271</v>
+        <v>1290489</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3824253657663448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3639521716077802</v>
+        <v>0.3649116771856208</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.399981363032382</v>
+        <v>0.3994297540901359</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2164</v>
@@ -2200,19 +2200,19 @@
         <v>2218154</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2166664</v>
+        <v>2163819</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2270119</v>
+        <v>2271308</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6691325717751664</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.653600138681476</v>
+        <v>0.6527417505771677</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6848084532713268</v>
+        <v>0.6851672432939714</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3377</v>
@@ -2221,19 +2221,19 @@
         <v>3453705</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3376794</v>
+        <v>3378091</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3539912</v>
+        <v>3538128</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5276216324023424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5158720013188809</v>
+        <v>0.5160701724437925</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5407914913628352</v>
+        <v>0.5405190184837654</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>623251</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>574437</v>
+        <v>578701</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>664955</v>
+        <v>668835</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1929073627472528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1777987049847526</v>
+        <v>0.1791184494800316</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2058156496961561</v>
+        <v>0.2070166801751878</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -2271,19 +2271,19 @@
         <v>249142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>223308</v>
+        <v>220082</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280630</v>
+        <v>278487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07515667637436296</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06736347111781023</v>
+        <v>0.06639047475825885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08465547313628163</v>
+        <v>0.08400892077707285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>861</v>
@@ -2292,19 +2292,19 @@
         <v>872393</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>817473</v>
+        <v>820218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>925796</v>
+        <v>931495</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1332752373703839</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1248851446379628</v>
+        <v>0.1253044335407597</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1414336903694653</v>
+        <v>0.1423041929074179</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>84216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66481</v>
+        <v>67468</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103907</v>
+        <v>103211</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02606622218156297</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02057701745930292</v>
+        <v>0.02088262099096755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0321609674279728</v>
+        <v>0.03194572578695979</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -2342,19 +2342,19 @@
         <v>83715</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65662</v>
+        <v>67213</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102104</v>
+        <v>102396</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02525373885247905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01980764899925345</v>
+        <v>0.02027553915249755</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03080080655924325</v>
+        <v>0.0308889612935195</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -2363,19 +2363,19 @@
         <v>167931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143883</v>
+        <v>145543</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>195966</v>
+        <v>195259</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0256547586968142</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0219809438159596</v>
+        <v>0.02223460777139944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02993766922971663</v>
+        <v>0.02982971462828889</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>1287812</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1232855</v>
+        <v>1231334</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1343997</v>
+        <v>1342718</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3986010493048394</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3815908613701731</v>
+        <v>0.3811201313879338</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4159914977588541</v>
+        <v>0.4155956187594277</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>745</v>
@@ -2413,19 +2413,19 @@
         <v>763958</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>716000</v>
+        <v>721381</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>809114</v>
+        <v>817560</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2304570129979916</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2159900727075941</v>
+        <v>0.2176131540872185</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2440789762948614</v>
+        <v>0.2466268179803502</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1997</v>
@@ -2434,19 +2434,19 @@
         <v>2051770</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1976431</v>
+        <v>1974687</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2128793</v>
+        <v>2123306</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3134483715304596</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3019388821592108</v>
+        <v>0.3016725220713639</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.325215184430552</v>
+        <v>0.3243770237563432</v>
       </c>
     </row>
     <row r="28">
@@ -2778,19 +2778,19 @@
         <v>324498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>294616</v>
+        <v>293922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353737</v>
+        <v>359922</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3111478009421474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2824955994292146</v>
+        <v>0.2818296850446123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3391844636102998</v>
+        <v>0.3451146998270175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>597</v>
@@ -2799,19 +2799,19 @@
         <v>645137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>610431</v>
+        <v>614867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>675863</v>
+        <v>680966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5760521860741693</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5450627660990741</v>
+        <v>0.54902364699592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6034879339517936</v>
+        <v>0.6080446721918032</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>905</v>
@@ -2820,19 +2820,19 @@
         <v>969635</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>923479</v>
+        <v>925040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1019152</v>
+        <v>1017712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4483168991434832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4269763892270491</v>
+        <v>0.4276983574263181</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4712118273179668</v>
+        <v>0.4705457306459414</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>220091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194939</v>
+        <v>193655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248708</v>
+        <v>250752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2110366613053618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1869190175292307</v>
+        <v>0.1856882735957607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2384763427181418</v>
+        <v>0.240436172916263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -2870,19 +2870,19 @@
         <v>117355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98433</v>
+        <v>97302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139281</v>
+        <v>139871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1047881371458508</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08789265963349389</v>
+        <v>0.08688281666331726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1243662112118403</v>
+        <v>0.1248924799687369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -2891,19 +2891,19 @@
         <v>337446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>304764</v>
+        <v>303262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>374814</v>
+        <v>373696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1560205307233043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1409094583542332</v>
+        <v>0.1402152056490697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1732977482507135</v>
+        <v>0.1727807789727333</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>31362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20979</v>
+        <v>22544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43298</v>
+        <v>45612</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03007169734915952</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02011585867045646</v>
+        <v>0.02161699616163852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04151706697979384</v>
+        <v>0.04373579596139172</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -2941,19 +2941,19 @@
         <v>18463</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11124</v>
+        <v>10273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30582</v>
+        <v>29765</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01648632494350625</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009932578461653319</v>
+        <v>0.009172646771723397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02730724048871426</v>
+        <v>0.02657765716329953</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -2962,19 +2962,19 @@
         <v>49825</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36606</v>
+        <v>37534</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66356</v>
+        <v>65709</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02303710907428422</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01692495087962784</v>
+        <v>0.01735404512816992</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03068019974912653</v>
+        <v>0.03038116762569857</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>466954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>433238</v>
+        <v>433673</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498137</v>
+        <v>498015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4477438404033312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4154151004101224</v>
+        <v>0.4158314554018067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4776433043842622</v>
+        <v>0.4775271350623997</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>308</v>
@@ -3012,19 +3012,19 @@
         <v>338972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>307971</v>
+        <v>307052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>372028</v>
+        <v>368477</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3026733518364737</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2749922084485276</v>
+        <v>0.2741708776917436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3321890527543901</v>
+        <v>0.3290186957435788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>747</v>
@@ -3033,19 +3033,19 @@
         <v>805927</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>755905</v>
+        <v>758337</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>852168</v>
+        <v>853017</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3726254610589282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3494974471942027</v>
+        <v>0.3506219066001109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3940055096226444</v>
+        <v>0.3943978153989245</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>307254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>282251</v>
+        <v>275986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>339028</v>
+        <v>337022</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.314463818044882</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2888737203508788</v>
+        <v>0.2824618888069355</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3469834026898177</v>
+        <v>0.3449302338615333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>634</v>
@@ -3158,19 +3158,19 @@
         <v>673549</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>638773</v>
+        <v>643632</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>707277</v>
+        <v>708107</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6155283941634284</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5837476984454891</v>
+        <v>0.5881882500819264</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6463507356685275</v>
+        <v>0.6471089590582442</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>926</v>
@@ -3179,19 +3179,19 @@
         <v>980803</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>934796</v>
+        <v>932246</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1028501</v>
+        <v>1025350</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4735127317272866</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4513011116232433</v>
+        <v>0.4500702887631796</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4965403108679997</v>
+        <v>0.4950189518444073</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>264086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233928</v>
+        <v>237063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291417</v>
+        <v>293363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.270282459142786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2394172288504454</v>
+        <v>0.2426256027773653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2982553035941933</v>
+        <v>0.3002467780338186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -3229,19 +3229,19 @@
         <v>126997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104777</v>
+        <v>106411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149505</v>
+        <v>152006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1160572300541065</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09575116308546026</v>
+        <v>0.09724473539149098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1366263148400627</v>
+        <v>0.1389116442506184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -3250,19 +3250,19 @@
         <v>391083</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352745</v>
+        <v>354945</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>426153</v>
+        <v>427806</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1888070645107857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1702984754436952</v>
+        <v>0.1713604157596883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2057382102841902</v>
+        <v>0.2065363237090768</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>27606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18454</v>
+        <v>18257</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41195</v>
+        <v>39397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02825414366486604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01888708520198647</v>
+        <v>0.01868490883168766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04216204936600544</v>
+        <v>0.0403217722602125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -3300,19 +3300,19 @@
         <v>23631</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14936</v>
+        <v>14674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35361</v>
+        <v>36473</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02159576532911554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01364907718115781</v>
+        <v>0.01341038321087226</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03231464204984322</v>
+        <v>0.03333081447389213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -3321,19 +3321,19 @@
         <v>51238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37191</v>
+        <v>37950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68378</v>
+        <v>67798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02473659983808723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01795518420159273</v>
+        <v>0.01832153514809471</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03301143452344663</v>
+        <v>0.0327315398027616</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>378127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>350752</v>
+        <v>348051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>411687</v>
+        <v>407206</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.386999579147466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3589822075644453</v>
+        <v>0.3562180874183484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4213467576453312</v>
+        <v>0.4167614945033633</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -3371,19 +3371,19 @@
         <v>270084</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>242045</v>
+        <v>241798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>302532</v>
+        <v>297924</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2468186104533496</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2211946392672036</v>
+        <v>0.2209686022902751</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.276471116358095</v>
+        <v>0.2722602008026298</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>606</v>
@@ -3392,19 +3392,19 @@
         <v>648211</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>608034</v>
+        <v>603927</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>695081</v>
+        <v>689890</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3129436039238405</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2935466848906662</v>
+        <v>0.2915640823351167</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3355714492137267</v>
+        <v>0.3330653310342669</v>
       </c>
     </row>
     <row r="13">
@@ -3496,19 +3496,19 @@
         <v>359175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332521</v>
+        <v>332053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388455</v>
+        <v>391476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4057949123844916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3756812663373015</v>
+        <v>0.3751524024346399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4388752226092019</v>
+        <v>0.4422878752300949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -3517,19 +3517,19 @@
         <v>556493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>526818</v>
+        <v>528417</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>588445</v>
+        <v>587261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6368557447071764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6028952928616758</v>
+        <v>0.6047242718996139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6734207861875087</v>
+        <v>0.6720668824572023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>861</v>
@@ -3538,19 +3538,19 @@
         <v>915669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>869266</v>
+        <v>871048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>959710</v>
+        <v>955942</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5205830329899831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4942016789180105</v>
+        <v>0.4952150597590642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5456219118480574</v>
+        <v>0.54347967888135</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>241690</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>213679</v>
+        <v>215928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>267902</v>
+        <v>267551</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2730605416492695</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2414141793723575</v>
+        <v>0.2439544765113905</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3026747391311984</v>
+        <v>0.3022783683064761</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>89</v>
@@ -3588,19 +3588,19 @@
         <v>97771</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79664</v>
+        <v>80157</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>119825</v>
+        <v>120699</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1118896860746401</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09116862851385929</v>
+        <v>0.09173273320334129</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1371285381418302</v>
+        <v>0.1381293261919572</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>317</v>
@@ -3609,19 +3609,19 @@
         <v>339461</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>305116</v>
+        <v>303701</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>372611</v>
+        <v>372194</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1929928840466422</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1734670092724359</v>
+        <v>0.1726625348984705</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2118397058540182</v>
+        <v>0.2116027126487366</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>17669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10871</v>
+        <v>10749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27039</v>
+        <v>27251</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01996201305519052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01228184225611951</v>
+        <v>0.01214375591116446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03054806316381474</v>
+        <v>0.03078817037832629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -3659,19 +3659,19 @@
         <v>19168</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12040</v>
+        <v>12045</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30668</v>
+        <v>30982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02193635119794592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01377876236751074</v>
+        <v>0.01378453817758352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03509623243308947</v>
+        <v>0.03545573952061067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -3680,19 +3680,19 @@
         <v>36837</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24786</v>
+        <v>26452</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50235</v>
+        <v>50085</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02094283945734824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01409136335475167</v>
+        <v>0.01503897889877181</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02855998042321892</v>
+        <v>0.02847486881485407</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>266581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>239223</v>
+        <v>238880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296710</v>
+        <v>296354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3011825329110485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2702729294328393</v>
+        <v>0.2698861093610274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.335222158906869</v>
+        <v>0.3348194155720435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -3730,19 +3730,19 @@
         <v>200381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176796</v>
+        <v>175907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224967</v>
+        <v>226918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2293182180202376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.202327076958936</v>
+        <v>0.2013098536881414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2574540172463022</v>
+        <v>0.2596870805887813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>435</v>
@@ -3751,19 +3751,19 @@
         <v>466963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>427732</v>
+        <v>429431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>509335</v>
+        <v>509579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2654812435060265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2431775746353125</v>
+        <v>0.2441436990437812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.289571105550623</v>
+        <v>0.2897097363721755</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>236102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211744</v>
+        <v>209641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261605</v>
+        <v>258934</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4693669193749345</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4209423004521047</v>
+        <v>0.4167628891762035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5200657690870323</v>
+        <v>0.5147563593033208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -3876,19 +3876,19 @@
         <v>299168</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>276073</v>
+        <v>275888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>320370</v>
+        <v>319239</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6608010005973631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6097875346224252</v>
+        <v>0.6093798493648998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.707631464584881</v>
+        <v>0.7051336541990784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>492</v>
@@ -3897,19 +3897,19 @@
         <v>535270</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>502942</v>
+        <v>502746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>566989</v>
+        <v>567380</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5600478221291109</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5262234018402192</v>
+        <v>0.5260178838165301</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5932345957818314</v>
+        <v>0.5936436527767592</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>106722</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88323</v>
+        <v>88362</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127837</v>
+        <v>128154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2121609239354063</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1755843296353431</v>
+        <v>0.1756623297858505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2541373840568716</v>
+        <v>0.2547669337247576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -3947,19 +3947,19 @@
         <v>50168</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36783</v>
+        <v>38046</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67317</v>
+        <v>67207</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1108106459301814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08124500160923626</v>
+        <v>0.08403668558666544</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1486883461046052</v>
+        <v>0.148445750221173</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -3968,19 +3968,19 @@
         <v>156890</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132322</v>
+        <v>133651</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>182107</v>
+        <v>182721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1641520498351775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1384470786858423</v>
+        <v>0.1398378899264743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1905371412703405</v>
+        <v>0.1911791272856579</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>19264</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12034</v>
+        <v>11426</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32174</v>
+        <v>29640</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03829649200407188</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02392250685357926</v>
+        <v>0.02271525026344709</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06396042281240272</v>
+        <v>0.05892372344865992</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4018,19 +4018,19 @@
         <v>12596</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7099</v>
+        <v>6243</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21748</v>
+        <v>22528</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02782283579987168</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01567927130979715</v>
+        <v>0.0137905334504351</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04803749372875565</v>
+        <v>0.04975942401235288</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -4039,19 +4039,19 @@
         <v>31860</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21085</v>
+        <v>22088</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44393</v>
+        <v>46110</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03333519883376006</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02206077137495948</v>
+        <v>0.02311050213662342</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04644779431554719</v>
+        <v>0.04824468557813726</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>140935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119382</v>
+        <v>121767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161166</v>
+        <v>163262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2801756646855874</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2373295094940253</v>
+        <v>0.2420697422528574</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.320395249826788</v>
+        <v>0.3245616236534665</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -4089,19 +4089,19 @@
         <v>90803</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74704</v>
+        <v>74282</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109494</v>
+        <v>108921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2005655176725838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1650050162833513</v>
+        <v>0.1640732546689008</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2418488586651047</v>
+        <v>0.2405830973713582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>215</v>
@@ -4110,19 +4110,19 @@
         <v>231738</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>203589</v>
+        <v>201292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259785</v>
+        <v>257988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2424649292019515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.21301316777382</v>
+        <v>0.21060958081534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2718103895126688</v>
+        <v>0.2699300959577728</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>1227029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1174015</v>
+        <v>1166847</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1291056</v>
+        <v>1290058</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3600315184283829</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3444763055787452</v>
+        <v>0.3423730495851199</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3788181102650381</v>
+        <v>0.3785252097546836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2027</v>
@@ -4235,19 +4235,19 @@
         <v>2174348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2113564</v>
+        <v>2110964</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2234164</v>
+        <v>2233891</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6140942668585462</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5969272652395275</v>
+        <v>0.5961930187391437</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6309878471120031</v>
+        <v>0.63091080085317</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3184</v>
@@ -4256,19 +4256,19 @@
         <v>3401377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3314782</v>
+        <v>3317706</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3488729</v>
+        <v>3482279</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4894873818049798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4770256205700117</v>
+        <v>0.4774462951093357</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5020580477178921</v>
+        <v>0.5011298671476266</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>832589</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>781774</v>
+        <v>780767</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>887953</v>
+        <v>884947</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2442958800884966</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2293858806223325</v>
+        <v>0.2290905041854122</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2605407013720026</v>
+        <v>0.2596588435857265</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>359</v>
@@ -4306,19 +4306,19 @@
         <v>392291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>356615</v>
+        <v>351243</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>432245</v>
+        <v>428177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.110793486117056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1007175694417399</v>
+        <v>0.09920058907385694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1220776682184538</v>
+        <v>0.1209288039469363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1130</v>
@@ -4327,19 +4327,19 @@
         <v>1224880</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1156019</v>
+        <v>1156519</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1290026</v>
+        <v>1294979</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1762706863865317</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1663610536400636</v>
+        <v>0.1664330678238357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1856458025638738</v>
+        <v>0.1863585717158752</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>95901</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76701</v>
+        <v>77714</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116922</v>
+        <v>119405</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0281389991046423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0225052877447233</v>
+        <v>0.02280252693398073</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03430701081188164</v>
+        <v>0.03503556018871686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -4377,19 +4377,19 @@
         <v>73860</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56612</v>
+        <v>56164</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93558</v>
+        <v>92420</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02085993545705673</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0159888381652995</v>
+        <v>0.01586235696895651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02642320874617288</v>
+        <v>0.02610176499691634</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>157</v>
@@ -4398,19 +4398,19 @@
         <v>169761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>145196</v>
+        <v>142403</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201734</v>
+        <v>196878</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02443000408316077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02089497039103068</v>
+        <v>0.02049295517202157</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02903132362494597</v>
+        <v>0.02833240813384633</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>1252597</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1193922</v>
+        <v>1192177</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1311055</v>
+        <v>1307635</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3675336023784782</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3503173941950313</v>
+        <v>0.349805432353156</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3846861603462237</v>
+        <v>0.3836827515631454</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>829</v>
@@ -4448,19 +4448,19 @@
         <v>900241</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>844872</v>
+        <v>848326</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>953549</v>
+        <v>955767</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2542523115673411</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2386145815960557</v>
+        <v>0.2395900683176098</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2693079205443156</v>
+        <v>0.2699341762031478</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2003</v>
@@ -4469,19 +4469,19 @@
         <v>2152838</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2073105</v>
+        <v>2063648</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2227116</v>
+        <v>2231129</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3098119277253277</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2983376320238143</v>
+        <v>0.2969766334297175</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.320501147184985</v>
+        <v>0.3210786177127989</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>409382</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>378860</v>
+        <v>376435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>442928</v>
+        <v>443744</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3629285051780314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3358692444175039</v>
+        <v>0.3337199792477171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3926672937929226</v>
+        <v>0.3933914715058746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>699</v>
@@ -4834,19 +4834,19 @@
         <v>749942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>712560</v>
+        <v>717647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>785183</v>
+        <v>785147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5959241095709429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5662194063652369</v>
+        <v>0.570262007722886</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6239272583235143</v>
+        <v>0.6238991562312629</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1092</v>
@@ -4855,19 +4855,19 @@
         <v>1159324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1109415</v>
+        <v>1110892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1205401</v>
+        <v>1211889</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.485794623592839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4648810101462906</v>
+        <v>0.4654998125834222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5051023258659508</v>
+        <v>0.5078211529199319</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>223070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196193</v>
+        <v>195973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249869</v>
+        <v>248940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.197757783429721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1739303655944111</v>
+        <v>0.1737354891967578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2215153496933519</v>
+        <v>0.2206922485221733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -4905,19 +4905,19 @@
         <v>109172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90259</v>
+        <v>89617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132529</v>
+        <v>129130</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08675116551898197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07172247148895243</v>
+        <v>0.07121201287815676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.105311479055274</v>
+        <v>0.1026102315214086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>317</v>
@@ -4926,19 +4926,19 @@
         <v>332242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>296607</v>
+        <v>300182</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>367184</v>
+        <v>368296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1392204033079563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1242879817264056</v>
+        <v>0.1257859020865901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.153862192497215</v>
+        <v>0.1543279084058418</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>30744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20730</v>
+        <v>22028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42945</v>
+        <v>44371</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02725564653726653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0183775528477271</v>
+        <v>0.01952831458608458</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03807228577651808</v>
+        <v>0.0393357380748559</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -4976,19 +4976,19 @@
         <v>25438</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17132</v>
+        <v>16759</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36528</v>
+        <v>36852</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02021356929727398</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01361320278492895</v>
+        <v>0.0133172300899968</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02902640618457806</v>
+        <v>0.02928371587267949</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -4997,19 +4997,19 @@
         <v>56182</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41712</v>
+        <v>43106</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72701</v>
+        <v>71959</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02354213143336756</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01747869313384789</v>
+        <v>0.01806300094272752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03046422858869342</v>
+        <v>0.03015302570942974</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>464800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>429706</v>
+        <v>431862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>496927</v>
+        <v>498503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4120580648549811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3809463072385565</v>
+        <v>0.382857159409476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4405397278842778</v>
+        <v>0.4419362913213633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>361</v>
@@ -5047,19 +5047,19 @@
         <v>373900</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340850</v>
+        <v>341481</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>409671</v>
+        <v>403182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2971111556128012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2708486671830196</v>
+        <v>0.2713497760858422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3255355092477591</v>
+        <v>0.3203795924262852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>790</v>
@@ -5068,19 +5068,19 @@
         <v>838700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>794542</v>
+        <v>790309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>893232</v>
+        <v>883635</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3514428416658372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3329390936756897</v>
+        <v>0.3311654674855805</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3742932796871551</v>
+        <v>0.370271830355959</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>403682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>374114</v>
+        <v>376345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>433436</v>
+        <v>435011</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4441805232450395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4116458381287659</v>
+        <v>0.4141001002031885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.476919048377513</v>
+        <v>0.4786520705940182</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>591</v>
@@ -5193,19 +5193,19 @@
         <v>634415</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>602993</v>
+        <v>599747</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>662840</v>
+        <v>660616</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6323689122499969</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6010490941312928</v>
+        <v>0.5978135711846646</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6607029864880642</v>
+        <v>0.658485776925395</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>984</v>
@@ -5214,19 +5214,19 @@
         <v>1038097</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>998808</v>
+        <v>991764</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1080717</v>
+        <v>1082902</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5429207159189764</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5223725175966183</v>
+        <v>0.5186885897692572</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.565210667203876</v>
+        <v>0.5663537633466066</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>175991</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153634</v>
+        <v>154472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202504</v>
+        <v>202111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1936467098551005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.169047215209832</v>
+        <v>0.1699686290719634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2228199388763715</v>
+        <v>0.2223871663308815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -5264,19 +5264,19 @@
         <v>106983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88124</v>
+        <v>89008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128308</v>
+        <v>129650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1066377900697038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08783954017667239</v>
+        <v>0.08872062349541074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1278945494938035</v>
+        <v>0.1292318914841492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>279</v>
@@ -5285,19 +5285,19 @@
         <v>282974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251980</v>
+        <v>253418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313513</v>
+        <v>315311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1479941722602605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1317847918693205</v>
+        <v>0.132536560320564</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1639659312945405</v>
+        <v>0.1649065119552378</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>25556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16917</v>
+        <v>17102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37360</v>
+        <v>36770</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02812007349788799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01861456441048628</v>
+        <v>0.01881748225435264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04110799888290389</v>
+        <v>0.04045924986777477</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -5335,19 +5335,19 @@
         <v>23229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15202</v>
+        <v>15406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34989</v>
+        <v>33595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02315374092232325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.015152755329429</v>
+        <v>0.01535598454120064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03487586763379462</v>
+        <v>0.03348675477018356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -5356,19 +5356,19 @@
         <v>48785</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37158</v>
+        <v>35537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64958</v>
+        <v>64648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02551429830640583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01943349100673433</v>
+        <v>0.01858581304877344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0339728537279141</v>
+        <v>0.03381077026713711</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>303595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>276463</v>
+        <v>275236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>332801</v>
+        <v>331858</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.334052693401972</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3041984928967582</v>
+        <v>0.3028486807519841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3661884873526835</v>
+        <v>0.3651504805995172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -5406,19 +5406,19 @@
         <v>238609</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>215840</v>
+        <v>212249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>267558</v>
+        <v>265297</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2378395567579761</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2151438170917438</v>
+        <v>0.2115643883994488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.266694764306273</v>
+        <v>0.2644414407817718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>518</v>
@@ -5427,19 +5427,19 @@
         <v>542204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>502887</v>
+        <v>504658</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>580880</v>
+        <v>581017</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2835708135143573</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2630079450690758</v>
+        <v>0.2639341625055354</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3037979836675389</v>
+        <v>0.3038695199142524</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>415844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>387292</v>
+        <v>387577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>446217</v>
+        <v>448741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5060020049504697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.471259334274249</v>
+        <v>0.4716069047310922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5429596711803667</v>
+        <v>0.5460317477605046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>476</v>
@@ -5552,19 +5552,19 @@
         <v>509592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482738</v>
+        <v>480146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535969</v>
+        <v>536618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6618330733416911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6269570925129783</v>
+        <v>0.6235904827401041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6960911444052944</v>
+        <v>0.6969330930952092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -5573,19 +5573,19 @@
         <v>925436</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>887702</v>
+        <v>886265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>963945</v>
+        <v>965301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.581379429196576</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5576741506911067</v>
+        <v>0.5567714415634574</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6055717837206327</v>
+        <v>0.6064234890340379</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>179972</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>154220</v>
+        <v>156609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>203426</v>
+        <v>205785</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.218991292349427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1876557898818401</v>
+        <v>0.190562350077147</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2475301774607081</v>
+        <v>0.2504008156290435</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -5623,19 +5623,19 @@
         <v>96041</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>78713</v>
+        <v>79459</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116742</v>
+        <v>116648</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1247333148415529</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1022289204171384</v>
+        <v>0.1031979165948889</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1516187245070674</v>
+        <v>0.1514967085922627</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>264</v>
@@ -5644,19 +5644,19 @@
         <v>276013</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>246413</v>
+        <v>245875</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>306600</v>
+        <v>306475</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1733975373136615</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1548024683258734</v>
+        <v>0.1544639305758718</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1926132859136001</v>
+        <v>0.1925346593920169</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>21953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13713</v>
+        <v>13271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34127</v>
+        <v>32428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02671228291630701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01668580860986216</v>
+        <v>0.01614853159902023</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04152611744825491</v>
+        <v>0.03945910838279427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -5694,19 +5694,19 @@
         <v>17156</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10223</v>
+        <v>9888</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27677</v>
+        <v>27691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02228153102938456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01327718588413358</v>
+        <v>0.01284217056264178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03594577686016534</v>
+        <v>0.03596342148633233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -5715,19 +5715,19 @@
         <v>39109</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27978</v>
+        <v>27584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53254</v>
+        <v>53238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02456907316899705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01757647850471492</v>
+        <v>0.01732878994931177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03345551183783775</v>
+        <v>0.0334450183947594</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>204054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182254</v>
+        <v>179588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231686</v>
+        <v>231656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2482944197837963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2217680169587425</v>
+        <v>0.2185241509850165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2819167134133438</v>
+        <v>0.2818807270138151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -5765,19 +5765,19 @@
         <v>147181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126083</v>
+        <v>125421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168725</v>
+        <v>171512</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1911520807873714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1637498911049088</v>
+        <v>0.1628912598711434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2191325274707104</v>
+        <v>0.2227516990589671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>333</v>
@@ -5786,19 +5786,19 @@
         <v>351235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319263</v>
+        <v>319826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387673</v>
+        <v>387525</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2206539603207655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2005680972136874</v>
+        <v>0.2009216781959503</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2435447216546123</v>
+        <v>0.2434518902497448</v>
       </c>
     </row>
     <row r="18">
@@ -5890,19 +5890,19 @@
         <v>264185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>240696</v>
+        <v>242580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>286909</v>
+        <v>288532</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5213825617788617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4750256628101804</v>
+        <v>0.4787433086348875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5662293226889633</v>
+        <v>0.5694320131603929</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>299</v>
@@ -5911,19 +5911,19 @@
         <v>324614</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>301621</v>
+        <v>301533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>347971</v>
+        <v>345026</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.662885506600821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6159336295766378</v>
+        <v>0.6157524517550887</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7105827502266913</v>
+        <v>0.7045690590486061</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>545</v>
@@ -5932,19 +5932,19 @@
         <v>588798</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>554604</v>
+        <v>557396</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>619817</v>
+        <v>620140</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5909266738188265</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5566087003580994</v>
+        <v>0.5594109563370951</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6220578687236813</v>
+        <v>0.6223815980969055</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>112539</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92820</v>
+        <v>92292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130980</v>
+        <v>130630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2221008589752609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.18318519673382</v>
+        <v>0.1821436974448604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.258495961126002</v>
+        <v>0.2578054030969146</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -5982,19 +5982,19 @@
         <v>71999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56346</v>
+        <v>56164</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88950</v>
+        <v>88474</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.147027791305581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1150621980861398</v>
+        <v>0.1146913167325126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1816416569366388</v>
+        <v>0.1806700212349122</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -6003,19 +6003,19 @@
         <v>184538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161726</v>
+        <v>158346</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209630</v>
+        <v>209585</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1852048789250007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1623107160408813</v>
+        <v>0.1589180691028418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.210387653526648</v>
+        <v>0.210342256827686</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>15111</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8979</v>
+        <v>9205</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25795</v>
+        <v>26375</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02982163713939786</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0177209423705136</v>
+        <v>0.01816638691721446</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0509070477392853</v>
+        <v>0.05205266048943695</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -6053,19 +6053,19 @@
         <v>8581</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4032</v>
+        <v>3932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17279</v>
+        <v>17176</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01752337067771794</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008233886474751541</v>
+        <v>0.008028994469870257</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03528595742221841</v>
+        <v>0.0350747811944831</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -6074,19 +6074,19 @@
         <v>23692</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15542</v>
+        <v>14651</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36722</v>
+        <v>34980</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02377743769334023</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01559853778065254</v>
+        <v>0.0147038324942884</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03685469416233756</v>
+        <v>0.03510690065383641</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>114867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97218</v>
+        <v>97924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136030</v>
+        <v>135275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2266949421064796</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1918647914597138</v>
+        <v>0.193257614805051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2684613608323493</v>
+        <v>0.2669720129652001</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -6124,19 +6124,19 @@
         <v>84504</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67108</v>
+        <v>69543</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102767</v>
+        <v>101834</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1725633314158801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1370402015401994</v>
+        <v>0.1420129681618855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2098578145511564</v>
+        <v>0.2079525173920457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>187</v>
@@ -6145,19 +6145,19 @@
         <v>199370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173500</v>
+        <v>176543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>226668</v>
+        <v>225259</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2000910095628326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1741274669128142</v>
+        <v>0.1771813739625734</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2274878460390343</v>
+        <v>0.2260737791613746</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>1493094</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1434282</v>
+        <v>1430646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1550490</v>
+        <v>1547319</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4436672309346963</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4261914844394403</v>
+        <v>0.4251111001233463</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4607222143860275</v>
+        <v>0.4597801488650145</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2065</v>
@@ -6270,19 +6270,19 @@
         <v>2218561</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2164011</v>
+        <v>2159151</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2278542</v>
+        <v>2271184</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.630030719096662</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6145395034864914</v>
+        <v>0.6131593157486719</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.647064189775744</v>
+        <v>0.644974610404188</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3500</v>
@@ -6291,19 +6291,19 @@
         <v>3711655</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3623400</v>
+        <v>3621269</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3801591</v>
+        <v>3797911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5389598721033396</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5261446688597543</v>
+        <v>0.5258351608203921</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5520193130088759</v>
+        <v>0.5514848349712222</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>691572</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>647299</v>
+        <v>646274</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>745641</v>
+        <v>739081</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2054980265525259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1923423711911406</v>
+        <v>0.1920378989929111</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2215643551431312</v>
+        <v>0.2196152142344252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>362</v>
@@ -6341,19 +6341,19 @@
         <v>384195</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>347157</v>
+        <v>350444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>423892</v>
+        <v>424426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1091043235794684</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09858624738728144</v>
+        <v>0.09951981138984207</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1203775849065741</v>
+        <v>0.1205292030166798</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1032</v>
@@ -6362,19 +6362,19 @@
         <v>1075767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1016060</v>
+        <v>1019120</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1137367</v>
+        <v>1141257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1562093453901231</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1475394376058517</v>
+        <v>0.1479838113180593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1651541330427035</v>
+        <v>0.1657189378609893</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>93364</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75692</v>
+        <v>74958</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115708</v>
+        <v>113945</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0277427447272835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02249149466338021</v>
+        <v>0.02227346176455195</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03438210724012979</v>
+        <v>0.03385821099008271</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -6412,19 +6412,19 @@
         <v>74404</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58204</v>
+        <v>59063</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93662</v>
+        <v>91326</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02112928722961862</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01652886607681224</v>
+        <v>0.01677290178230145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0265982326489502</v>
+        <v>0.02593502405225062</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -6433,19 +6433,19 @@
         <v>167768</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143320</v>
+        <v>141361</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>195467</v>
+        <v>193146</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02436110684088945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02081111386366322</v>
+        <v>0.02052662834328547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02838322551258428</v>
+        <v>0.02804623683853011</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>1087316</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1033687</v>
+        <v>1034615</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1147685</v>
+        <v>1142970</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3230919977854942</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3071561852737272</v>
+        <v>0.307432054157927</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.341030229476293</v>
+        <v>0.3396292933327151</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>818</v>
@@ -6483,19 +6483,19 @@
         <v>844194</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>793190</v>
+        <v>795771</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>894399</v>
+        <v>896219</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.239735670094251</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2252515275331808</v>
+        <v>0.2259844299483207</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2539929912036576</v>
+        <v>0.2545098373059444</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1828</v>
@@ -6504,19 +6504,19 @@
         <v>1931511</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1856957</v>
+        <v>1853175</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2008044</v>
+        <v>2007183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2804696756656478</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2696440202035842</v>
+        <v>0.2690947228312429</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2915829363590717</v>
+        <v>0.2914579172388075</v>
       </c>
     </row>
     <row r="28">
